--- a/tut05/output/0501CS20.xlsx
+++ b/tut05/output/0501CS20.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.571428571428571</v>
+        <v>5.57</v>
       </c>
       <c r="C6" t="n">
-        <v>6.181818181818182</v>
+        <v>6.18</v>
       </c>
       <c r="D6" t="n">
-        <v>7.418604651162791</v>
+        <v>7.42</v>
       </c>
       <c r="E6" t="n">
-        <v>6.617021276595745</v>
+        <v>6.62</v>
       </c>
       <c r="F6" t="n">
-        <v>6.738095238095238</v>
+        <v>6.74</v>
       </c>
       <c r="G6" t="n">
-        <v>6.675</v>
+        <v>6.67</v>
       </c>
       <c r="H6" t="n">
-        <v>6.585365853658536</v>
+        <v>6.59</v>
       </c>
       <c r="I6" t="n">
         <v>7.15</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.571428571428571</v>
+        <v>5.57</v>
       </c>
       <c r="C8" t="n">
-        <v>5.860215053763441</v>
+        <v>5.86</v>
       </c>
       <c r="D8" t="n">
-        <v>6.352941176470588</v>
+        <v>6.35</v>
       </c>
       <c r="E8" t="n">
-        <v>6.420765027322404</v>
+        <v>6.42</v>
       </c>
       <c r="F8" t="n">
         <v>6.48</v>
       </c>
       <c r="G8" t="n">
-        <v>6.509433962264151</v>
+        <v>6.51</v>
       </c>
       <c r="H8" t="n">
-        <v>6.519607843137255</v>
+        <v>6.52</v>
       </c>
       <c r="I8" t="n">
-        <v>6.592485549132948</v>
+        <v>6.59</v>
       </c>
     </row>
   </sheetData>
